--- a/biology/Zoologie/Batocera_lineolata/Batocera_lineolata.xlsx
+++ b/biology/Zoologie/Batocera_lineolata/Batocera_lineolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Batocera lineolata est une espèce d'insectes coléoptères de la famille des capricornes, originaire du Japon.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut mesurer 2,5 cm. Il est noir tacheté de blanc ou de jaune, et ses longues antennes présentent des anneaux noirs et blancs.
 </t>
@@ -542,9 +556,11 @@
           <t>Dommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un insecte xylophage, qui cause des dégâts, entre autres, aux peupliers[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un insecte xylophage, qui cause des dégâts, entre autres, aux peupliers.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve au Japon, en Chine, à Taïwan et en Corée du Sud[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve au Japon, en Chine, à Taïwan et en Corée du Sud.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Synonymes latins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ce taxon admet les synonymes latins suivants[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce taxon admet les synonymes latins suivants :
 Batocera (s. str.) lineolata Mitono, 1941
 Batocera lineolata Gressitt, 1951
 Batocera lineolata Ohbayashi N., 1981
